--- a/biology/Zoologie/Homalonychus/Homalonychus.xlsx
+++ b/biology/Zoologie/Homalonychus/Homalonychus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Homalonychus est un genre d'araignées aranéomorphes, le seul de la famille des Homalonychidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Homalonychus est un genre d'araignées aranéomorphes, le seul de la famille des Homalonychidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent aux États-Unis en Californie, au Nevada et en Arizona et au Mexique au Sonora, en Basse-Californie et en Basse-Californie du Sud[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent aux États-Unis en Californie, au Nevada et en Arizona et au Mexique au Sonora, en Basse-Californie et en Basse-Californie du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 6,5 à 9,0 mm et les femelles de 7,0 à 12,8 mm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 6,5 à 9,0 mm et les femelles de 7,0 à 12,8 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille n'est pas connue à l'état fossile[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille n'est pas connue à l'état fossile.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 22.5, 04/01/2022)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 22.5, 04/01/2022) :
 Homalonychus selenopoides Marx, 1891
 Homalonychus theologus Chamberlin, 1924</t>
         </is>
@@ -636,10 +656,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Marx en 1891. Il est placé dans la sous-famille des Homalonychinae dans les Zodariidae  par Simon en 1893[7], cette sous-famille est élevée au rang de famille par Petrunkevitch en 1923[8].
-Cette famille rassemble deux espèces dans un genre[1]. Homalonychus joyaus Tikader, 1970 et Homalonychus raghavai Patel &amp; Reddy, 1991 ont été placées dans le genre Storenomorpha et Megapyge Caporiacco, 1947 dans les Thomisidae.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Marx en 1891. Il est placé dans la sous-famille des Homalonychinae dans les Zodariidae  par Simon en 1893, cette sous-famille est élevée au rang de famille par Petrunkevitch en 1923.
+Cette famille rassemble deux espèces dans un genre. Homalonychus joyaus Tikader, 1970 et Homalonychus raghavai Patel &amp; Reddy, 1991 ont été placées dans le genre Storenomorpha et Megapyge Caporiacco, 1947 dans les Thomisidae.
 </t>
         </is>
       </c>
@@ -668,7 +690,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Marx, 1891 : « A contribution to the knowledge of North American spiders. » Proceedings of the Entomological Society of Washington, vol. 2, p. 28-37 (texte intégral).
 Simon, 1893 : Histoire naturelle des araignées. Paris, vol. 1, p. 257-488 (texte intégral).</t>
